--- a/PHPチーム_概要.xlsx
+++ b/PHPチーム_概要.xlsx
@@ -10,13 +10,14 @@
     <sheet name="開発概要" sheetId="1" r:id="rId1"/>
     <sheet name="開発画面" sheetId="2" r:id="rId2"/>
     <sheet name="機能説明" sheetId="6" r:id="rId3"/>
+    <sheet name="history" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>開発内容：ツイッターライクな簡易的SNSの作成</t>
     <rPh sb="0" eb="2">
@@ -203,28 +204,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開発期間：18年4月末(5ヶ月)</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>投稿一覧画面</t>
     <rPh sb="0" eb="2">
       <t>トウコウ</t>
@@ -437,10 +416,6 @@
   </si>
   <si>
     <t>サインアウト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ver.1.0.0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -783,7 +758,137 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>5パターンの画像を表示し、その中から
+    <t>140文字以内の文字列をDBに登録する</t>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧画面</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿一覧画面</t>
+    <rPh sb="0" eb="6">
+      <t>トウコウイチランガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員の投稿を時系列順に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ジケイレツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>投稿に対して、いいね悪いねの数をDBに登録する</t>
+    <rPh sb="0" eb="2">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発リーダー：松井TL</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発期間：18年4月末(4ヶ月)</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8パターンの画像を表示し、その中から
 一枚プロフィール画面に表示する画像を選択し登録する</t>
     <rPh sb="6" eb="8">
       <t>ガゾウ</t>
@@ -815,100 +920,86 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>140文字以内の文字列をDBに登録する</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>モジレツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿画面</t>
+    <t>Ver.1.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日：18/1/5</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更内容</t>
     <rPh sb="0" eb="2">
-      <t>トウコウ</t>
+      <t>ヘンコウ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿一覧画面</t>
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
     <rPh sb="0" eb="2">
-      <t>トウコウ</t>
+      <t>シンキ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿一覧画面</t>
-    <rPh sb="0" eb="6">
-      <t>トウコウイチランガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全員の投稿を時系列順に表示する</t>
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記入者</t>
+    <rPh sb="0" eb="3">
+      <t>キニュウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山﨑</t>
     <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ジケイレツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投稿に対して、いいね悪いねの数をDBに登録する</t>
-    <rPh sb="0" eb="2">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ワル</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
+      <t>ヤマサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①開発リーダー欄追加
+②画像パターン数5→8</t>
+    <rPh sb="1" eb="3">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1306,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1344,6 +1435,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1409,20 +1515,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2711,7 +2807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2725,12 +2821,12 @@
         <v>2</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -2738,7 +2834,12 @@
         <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -2753,22 +2854,27 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2798,7 +2904,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2810,8 +2916,8 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="4"/>
-      <c r="K9" s="29" t="s">
-        <v>13</v>
+      <c r="K9" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -2832,17 +2938,17 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="35"/>
+      <c r="P10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10" s="40"/>
       <c r="R10" s="7"/>
     </row>
     <row r="11" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2856,13 +2962,13 @@
       <c r="I11" s="7"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="37"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="42"/>
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
@@ -2889,14 +2995,14 @@
         <v>7</v>
       </c>
       <c r="D13" s="6"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="K13" s="5"/>
       <c r="L13" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -2929,9 +3035,9 @@
         <v>8</v>
       </c>
       <c r="D15" s="6"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="K15" s="5"/>
@@ -3061,12 +3167,12 @@
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -3093,34 +3199,34 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B27" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
+      <c r="C27" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="K27" s="34" t="s">
+        <v>12</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -3131,7 +3237,7 @@
       <c r="R27" s="4"/>
     </row>
     <row r="28" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="30"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3139,10 +3245,10 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="7"/>
-      <c r="K28" s="30"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="6"/>
       <c r="M28" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" s="21"/>
       <c r="O28" s="6"/>
@@ -3152,16 +3258,16 @@
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
       <c r="I29" s="4"/>
       <c r="K29" s="5"/>
       <c r="L29" s="6"/>
@@ -3174,17 +3280,17 @@
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="7"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
@@ -3195,19 +3301,19 @@
     <row r="31" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="6"/>
@@ -3224,7 +3330,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
@@ -3244,7 +3350,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -3264,7 +3370,7 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -3347,7 +3453,7 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
       <c r="P38" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="7"/>
@@ -3372,10 +3478,10 @@
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
@@ -3385,41 +3491,41 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K43" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="24"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K44" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="24"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K45" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="24"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="K46" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="24"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="21"/>
@@ -3431,7 +3537,7 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -3442,7 +3548,7 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
@@ -3453,7 +3559,7 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
@@ -3464,7 +3570,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
@@ -3475,7 +3581,7 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
@@ -3506,93 +3612,93 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="52"/>
-    <col min="2" max="2" width="17.88671875" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="52" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="52"/>
+    <col min="1" max="1" width="8.88671875" style="29"/>
+    <col min="2" max="2" width="17.88671875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="79.2" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="56" t="s">
+    <row r="5" spans="2:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B5" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D5" s="32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="79.2" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B5" s="54" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="55" t="s">
+      <c r="C7" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="26.4" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="55" t="s">
+      <c r="C8" s="31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="54" t="s">
+      <c r="D8" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="C9" s="31" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="54" t="s">
+      <c r="D9" s="31" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3600,4 +3706,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="57">
+        <v>43067</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="26.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>